--- a/attendance_report.xlsx
+++ b/attendance_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,178 +474,10 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45917.7221093586</v>
+        <v>45944.32566060259</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GFHKTS001</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>45917.76790873588</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GFHKTS002</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>45917.78076626867</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>45917.78138943732</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Sick</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Gofishnet001</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>45917.78178906098</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>45917.78335050431</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Personal</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>GFHKTS001</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>45918.16324931542</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>45918.17026332366</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Personal</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Gofishnet001</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>45918.18968822512</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Gofishnet001</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>45918.20071078945</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>GFHKTS001</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>45918.21568306913</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>GFHKTS002</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>45918.22715675907</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Gofishnet001</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>45918.22749264946</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Gofishnet001</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>45918.68026075407</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
